--- a/战力数值计算/data.xlsx
+++ b/战力数值计算/data.xlsx
@@ -1169,14 +1169,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2458,6 +2458,9 @@
       <c r="A32" s="11">
         <v>30</v>
       </c>
+      <c r="B32" s="2">
+        <v>17265</v>
+      </c>
       <c r="C32" s="1">
         <v>773</v>
       </c>
@@ -2471,41 +2474,268 @@
         <v>1157.5</v>
       </c>
       <c r="H32" s="1">
-        <v>32.2</v>
+        <v>34.7</v>
       </c>
       <c r="I32" s="1">
         <v>8.7</v>
       </c>
       <c r="J32" s="1">
-        <v>292.9</v>
+        <v>298.9</v>
       </c>
       <c r="K32" s="1">
         <v>196</v>
       </c>
-      <c r="N32" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.1</v>
+      <c r="L32" s="1">
+        <v>5</v>
       </c>
       <c r="Q32" s="1">
         <v>0.95</v>
       </c>
-      <c r="X32" s="1">
-        <v>0.05</v>
-      </c>
       <c r="AB32" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:28">
       <c r="A33" s="11">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="2">
+        <v>18781</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1013</v>
+      </c>
+      <c r="E33" s="1">
+        <v>375</v>
+      </c>
+      <c r="F33" s="1">
+        <v>74</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1157.5</v>
+      </c>
+      <c r="H33" s="1">
+        <v>129.8</v>
+      </c>
+      <c r="I33" s="1">
+        <v>8.7</v>
+      </c>
+      <c r="J33" s="1">
+        <v>292.9</v>
+      </c>
+      <c r="K33" s="1">
+        <v>196</v>
+      </c>
+      <c r="L33" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="11">
         <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>18093</v>
+      </c>
+      <c r="C34" s="1">
+        <v>773</v>
+      </c>
+      <c r="E34" s="1">
+        <v>450</v>
+      </c>
+      <c r="F34" s="1">
+        <v>68</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1367.5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>22.4</v>
+      </c>
+      <c r="I34" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="J34" s="1">
+        <v>292.9</v>
+      </c>
+      <c r="K34" s="1">
+        <v>196</v>
+      </c>
+      <c r="L34" s="1">
+        <v>10</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="10">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>17852</v>
+      </c>
+      <c r="C35" s="1">
+        <v>773</v>
+      </c>
+      <c r="E35" s="1">
+        <v>450</v>
+      </c>
+      <c r="F35" s="1">
+        <v>68</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1300</v>
+      </c>
+      <c r="H35" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="I35" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="J35" s="1">
+        <v>292.9</v>
+      </c>
+      <c r="K35" s="1">
+        <v>196</v>
+      </c>
+      <c r="L35" s="1">
+        <v>15</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="10">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>20179</v>
+      </c>
+      <c r="C36" s="1">
+        <v>773</v>
+      </c>
+      <c r="E36" s="1">
+        <v>450</v>
+      </c>
+      <c r="F36" s="1">
+        <v>68</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1300</v>
+      </c>
+      <c r="H36" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="I36" s="1">
+        <v>308.8</v>
+      </c>
+      <c r="J36" s="1">
+        <v>292.9</v>
+      </c>
+      <c r="K36" s="1">
+        <v>196</v>
+      </c>
+      <c r="L36" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="10">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>19568</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1253</v>
+      </c>
+      <c r="E37" s="1">
+        <v>375</v>
+      </c>
+      <c r="F37" s="1">
+        <v>68</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1157.5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>35</v>
+      </c>
+      <c r="I37" s="1">
+        <v>328.8</v>
+      </c>
+      <c r="J37" s="1">
+        <v>292.9</v>
+      </c>
+      <c r="K37" s="1">
+        <v>204</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="10">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>20318</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2373</v>
+      </c>
+      <c r="E38" s="1">
+        <v>375</v>
+      </c>
+      <c r="F38" s="1">
+        <v>80</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1157.5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>35</v>
+      </c>
+      <c r="I38" s="1">
+        <v>348.8</v>
+      </c>
+      <c r="J38" s="1">
+        <v>292.9</v>
+      </c>
+      <c r="K38" s="1">
+        <v>196</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/战力数值计算/data.xlsx
+++ b/战力数值计算/data.xlsx
@@ -305,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +345,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +679,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,16 +703,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -715,89 +721,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,7 +846,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -855,7 +864,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1169,14 +1178,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG38"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB38" sqref="AB38"/>
+      <selection pane="bottomRight" activeCell="AC9" sqref="B3:AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1319,55 +1328,55 @@
       <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="Z2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2736,6 +2745,268 @@
       </c>
       <c r="AB38" s="1">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="9">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>19290</v>
+      </c>
+      <c r="C39" s="1">
+        <v>773</v>
+      </c>
+      <c r="E39" s="1">
+        <v>375</v>
+      </c>
+      <c r="F39" s="1">
+        <v>68</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1157.5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>40.3</v>
+      </c>
+      <c r="I39" s="1">
+        <v>308.8</v>
+      </c>
+      <c r="J39" s="1">
+        <v>292.9</v>
+      </c>
+      <c r="K39" s="1">
+        <v>196</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="9">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>19158</v>
+      </c>
+      <c r="C40" s="1">
+        <v>853</v>
+      </c>
+      <c r="E40" s="1">
+        <v>375</v>
+      </c>
+      <c r="F40" s="1">
+        <v>68</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1157.5</v>
+      </c>
+      <c r="H40" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="I40" s="1">
+        <v>308.8</v>
+      </c>
+      <c r="J40" s="1">
+        <v>301.9</v>
+      </c>
+      <c r="K40" s="1">
+        <v>196</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="9">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>19308</v>
+      </c>
+      <c r="C41" s="1">
+        <v>773</v>
+      </c>
+      <c r="D41" s="1">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1">
+        <v>375</v>
+      </c>
+      <c r="F41" s="1">
+        <v>68</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1157.5</v>
+      </c>
+      <c r="H41" s="1">
+        <v>38</v>
+      </c>
+      <c r="I41" s="1">
+        <v>308.8</v>
+      </c>
+      <c r="J41" s="1">
+        <v>292.9</v>
+      </c>
+      <c r="K41" s="1">
+        <v>196</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="9">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>19612</v>
+      </c>
+      <c r="C42" s="1">
+        <v>773</v>
+      </c>
+      <c r="D42" s="1">
+        <v>40</v>
+      </c>
+      <c r="E42" s="1">
+        <v>375</v>
+      </c>
+      <c r="F42" s="1">
+        <v>68</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1157.5</v>
+      </c>
+      <c r="H42" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="I42" s="1">
+        <v>328.8</v>
+      </c>
+      <c r="J42" s="1">
+        <v>292.9</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="14">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>19454</v>
+      </c>
+      <c r="C43" s="1">
+        <v>933</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2300</v>
+      </c>
+      <c r="F43" s="1">
+        <v>68</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1292.5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="J43" s="1">
+        <v>292.9</v>
+      </c>
+      <c r="K43" s="1">
+        <v>206</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="14">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>19411</v>
+      </c>
+      <c r="C44" s="1">
+        <v>773</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2300</v>
+      </c>
+      <c r="F44" s="1">
+        <v>68</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1292.5</v>
+      </c>
+      <c r="H44" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="J44" s="1">
+        <v>292.9</v>
+      </c>
+      <c r="K44" s="1">
+        <v>196</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="14">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
